--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL336_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL336_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\CP05MOAS-GL336\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1140" windowWidth="23304" windowHeight="8460" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="1260" yWindow="1140" windowWidth="23310" windowHeight="8460" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Ref Des</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>N00019</t>
+  </si>
+  <si>
+    <t>CC_bsipar_par_scaling</t>
   </si>
 </sst>
 </file>
@@ -255,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,8 +277,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -324,6 +333,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -341,7 +365,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,6 +429,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -773,18 +803,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="11" width="14.44140625" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
@@ -822,7 +852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -862,19 +892,19 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G6" s="18"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
@@ -896,21 +926,21 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="8" width="36.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="8" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -936,7 +966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -972,7 +1002,7 @@
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
@@ -1008,7 +1038,7 @@
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -1044,7 +1074,7 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
@@ -1080,7 +1110,7 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1099,7 +1129,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1130,7 +1160,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
@@ -1161,7 +1191,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
@@ -1192,7 +1222,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
@@ -1223,7 +1253,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11"/>
       <c r="C11" s="6"/>
@@ -1238,7 +1268,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1265,7 +1295,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -1280,7 +1310,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -1307,7 +1337,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -1322,7 +1352,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1341,15 +1371,19 @@
       <c r="F16" s="7">
         <v>50152</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="14"/>
+      <c r="G16" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="27">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -1364,7 +1398,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL336_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL336_00001.xlsx
@@ -35,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$97</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$413</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Ref Des</t>
   </si>
@@ -174,13 +174,16 @@
   </si>
   <si>
     <t>CC_bsipar_par_scaling</t>
+  </si>
+  <si>
+    <t>OL000348</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -256,6 +259,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -373,9 +382,6 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -435,6 +441,9 @@
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -800,7 +809,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,44 +824,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -865,50 +874,56 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>42015</v>
       </c>
       <c r="F2" s="2">
         <v>6.9444444444444397E-3</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <v>42090</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="22">
         <v>1000</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="27">
+        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
+        <v>39.833333333333336</v>
+      </c>
+      <c r="N2" s="27">
+        <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
+        <v>-70.708333333333329</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="18"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -926,7 +941,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,487 +956,489 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>336</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>643106</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
         <v>0.61</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>336</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>643106</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>0.61</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>336</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>643106</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>0.61</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>336</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>643106</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>0.61</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-    </row>
-    <row r="7" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A6" s="9"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>336</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>2858</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>124</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>336</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>2858</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>700</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>336</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>2858</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <v>1.0760000000000001</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>336</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>2858</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>3.9E-2</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
       <c r="B11"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>336</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>9030</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>336</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>117</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>336</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>50152</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="26">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>336</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>1</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="6">
         <v>336</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
